--- a/Web Resources.xlsx
+++ b/Web Resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamza\Desktop\ICE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63D766AB-2689-471B-9E56-B6EF46A2F6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3364CC76-3C8E-4087-A1F0-912656A3C569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5B5EB1B9-B6A9-4FCA-9A2A-20AAEB07A322}"/>
   </bookViews>
@@ -33,12 +33,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Inline-4 Wikipedia</t>
+  </si>
+  <si>
+    <t>Information about the Inline-4 Engine design.</t>
+  </si>
+  <si>
+    <t>Straight-four engine - Wikipedia</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -53,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -61,14 +102,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -381,12 +446,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA4A58F-DAFA-4F5B-A11B-BFA1D1C7BD08}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://en.wikipedia.org/wiki/Straight-four_engine" xr:uid="{147FA0A9-439C-49DA-82E4-7783901C4D61}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>